--- a/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
+++ b/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Automation_1Updated\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A87BD-B20C-4BBB-B871-050B4CFD4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D440FEE-0995-42C9-BC1D-13452A39C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddLine" sheetId="15" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
+++ b/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D440FEE-0995-42C9-BC1D-13452A39C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8AE06A73-705B-42FE-8B61-A1D362B2F815}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="AddLine" sheetId="15" r:id="rId1"/>
-    <sheet name="AddHeader" sheetId="14" r:id="rId2"/>
-    <sheet name="InventoryQuantity" sheetId="12" r:id="rId3"/>
-    <sheet name="Requirements" sheetId="9" r:id="rId4"/>
-    <sheet name="SOORDDMD" sheetId="10" r:id="rId5"/>
-    <sheet name="Dimensions" sheetId="11" r:id="rId6"/>
+    <sheet name="AddLine" r:id="rId1" sheetId="15"/>
+    <sheet name="AddHeader" r:id="rId2" sheetId="14"/>
+    <sheet name="InventoryQuantity" r:id="rId3" sheetId="12"/>
+    <sheet name="Requirements" r:id="rId4" sheetId="9"/>
+    <sheet name="SOORDDMD" r:id="rId5" sheetId="10"/>
+    <sheet name="Dimensions" r:id="rId6" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>Customer</t>
   </si>
@@ -68,9 +68,6 @@
     <t>ItemNumber_ExcludeICItemDescriptionFromNumber</t>
   </si>
   <si>
-    <t>5501-14</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>5501-1</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>5501-16</t>
-  </si>
-  <si>
     <t>ProductDescription</t>
   </si>
   <si>
@@ -185,24 +176,12 @@
     <t>FirmLines</t>
   </si>
   <si>
-    <t>ItemNumber</t>
-  </si>
-  <si>
     <t>QuantityBefore</t>
   </si>
   <si>
     <t>QuantityAfter</t>
   </si>
   <si>
-    <t>85.000000</t>
-  </si>
-  <si>
-    <t>142.000000</t>
-  </si>
-  <si>
-    <t>465.000000</t>
-  </si>
-  <si>
     <t>a7O410000004Nwj</t>
   </si>
   <si>
@@ -261,13 +240,76 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVOUA4</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVT</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVn</t>
+  </si>
+  <si>
+    <t>Process Quantity</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>999781.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>999780.0</t>
+  </si>
+  <si>
+    <t>9.999999733E9</t>
+  </si>
+  <si>
+    <t>90100.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>90098.0</t>
+  </si>
+  <si>
+    <t>999779.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>90096.0</t>
+  </si>
+  <si>
+    <t>999778.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>90094.0</t>
+  </si>
+  <si>
+    <t>999777.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +341,258 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,7 +603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -317,27 +611,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="50">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="21" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,10 +753,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -392,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -427,7 +826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -521,21 +920,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -552,7 +951,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -604,94 +1003,94 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -711,25 +1110,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -746,25 +1145,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -781,25 +1180,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -816,25 +1215,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -850,168 +1249,191 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.97265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,128 +1478,128 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,16 +1616,16 @@
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,22 +1636,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,19 +1659,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,19 +1679,19 @@
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,19 +1699,19 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,23 +1719,23 @@
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
+++ b/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>Customer</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>999777.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>90091.0</t>
+  </si>
+  <si>
+    <t>999774.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>90089.0</t>
+  </si>
+  <si>
+    <t>999773.0</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +359,78 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -603,7 +693,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -674,11 +764,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -729,8 +837,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="21" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="27" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1358,10 +1478,10 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1372,10 +1492,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1386,10 +1506,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
+++ b/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Customer</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t>999773.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>90932.0</t>
+  </si>
+  <si>
+    <t>999688.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>90930.0</t>
+  </si>
+  <si>
+    <t>999687.0</t>
+  </si>
+  <si>
+    <t>90915.0</t>
+  </si>
+  <si>
+    <t>999678.0</t>
   </si>
 </sst>
 </file>
@@ -327,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +383,222 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -693,7 +933,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -782,11 +1022,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -849,8 +1143,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="27" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="94" fillId="0" borderId="45" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1478,10 +1808,10 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1492,10 +1822,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1506,10 +1836,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
+++ b/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes - SOAPI.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D440FEE-0995-42C9-BC1D-13452A39C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8AE06A73-705B-42FE-8B61-A1D362B2F815}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="AddLine" sheetId="15" r:id="rId1"/>
-    <sheet name="AddHeader" sheetId="14" r:id="rId2"/>
-    <sheet name="InventoryQuantity" sheetId="12" r:id="rId3"/>
-    <sheet name="Requirements" sheetId="9" r:id="rId4"/>
-    <sheet name="SOORDDMD" sheetId="10" r:id="rId5"/>
-    <sheet name="Dimensions" sheetId="11" r:id="rId6"/>
+    <sheet name="AddLine" r:id="rId1" sheetId="15"/>
+    <sheet name="AddHeader" r:id="rId2" sheetId="14"/>
+    <sheet name="InventoryQuantity" r:id="rId3" sheetId="12"/>
+    <sheet name="Requirements" r:id="rId4" sheetId="9"/>
+    <sheet name="SOORDDMD" r:id="rId5" sheetId="10"/>
+    <sheet name="Dimensions" r:id="rId6" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Customer</t>
   </si>
@@ -68,9 +68,6 @@
     <t>ItemNumber_ExcludeICItemDescriptionFromNumber</t>
   </si>
   <si>
-    <t>5501-14</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>5501-1</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>5501-16</t>
-  </si>
-  <si>
     <t>ProductDescription</t>
   </si>
   <si>
@@ -185,24 +176,12 @@
     <t>FirmLines</t>
   </si>
   <si>
-    <t>ItemNumber</t>
-  </si>
-  <si>
     <t>QuantityBefore</t>
   </si>
   <si>
     <t>QuantityAfter</t>
   </si>
   <si>
-    <t>85.000000</t>
-  </si>
-  <si>
-    <t>142.000000</t>
-  </si>
-  <si>
-    <t>465.000000</t>
-  </si>
-  <si>
     <t>a7O410000004Nwj</t>
   </si>
   <si>
@@ -261,13 +240,118 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVOUA4</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVT</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVn</t>
+  </si>
+  <si>
+    <t>Process Quantity</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>999781.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>999780.0</t>
+  </si>
+  <si>
+    <t>9.999999733E9</t>
+  </si>
+  <si>
+    <t>90100.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>90098.0</t>
+  </si>
+  <si>
+    <t>999779.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>90096.0</t>
+  </si>
+  <si>
+    <t>999778.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>90094.0</t>
+  </si>
+  <si>
+    <t>999777.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>90091.0</t>
+  </si>
+  <si>
+    <t>999774.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>90089.0</t>
+  </si>
+  <si>
+    <t>999773.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>90932.0</t>
+  </si>
+  <si>
+    <t>999688.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>90930.0</t>
+  </si>
+  <si>
+    <t>999687.0</t>
+  </si>
+  <si>
+    <t>90915.0</t>
+  </si>
+  <si>
+    <t>999678.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +383,546 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,7 +933,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -317,27 +941,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="98">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="94" fillId="0" borderId="45" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,10 +1203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -392,7 +1241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -427,7 +1276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -521,21 +1370,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -552,7 +1401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -604,94 +1453,94 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -711,25 +1560,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -746,25 +1595,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -781,25 +1630,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -816,25 +1665,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -850,168 +1699,191 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.97265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,13 +1894,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,128 +1928,128 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,16 +2066,16 @@
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,22 +2086,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,19 +2109,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,19 +2129,19 @@
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,19 +2149,19 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,23 +2169,23 @@
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>